--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.7452623054266</v>
+        <v>167.2468128004401</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8914359600889</v>
+        <v>228.8344676820973</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.8182883878154</v>
+        <v>206.9948272577764</v>
       </c>
       <c r="AD2" t="n">
-        <v>130745.2623054266</v>
+        <v>167246.8128004401</v>
       </c>
       <c r="AE2" t="n">
-        <v>178891.4359600889</v>
+        <v>228834.4676820973</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.51509421320979e-06</v>
+        <v>4.653582782394156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161818.2883878154</v>
+        <v>206994.8272577765</v>
       </c>
     </row>
     <row r="3">
@@ -4468,28 +4468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.9341784118231</v>
+        <v>148.5209802528572</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1532810904226</v>
+        <v>203.2129574650803</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.5365468951746</v>
+        <v>183.8185980158479</v>
       </c>
       <c r="AD3" t="n">
-        <v>111934.1784118231</v>
+        <v>148520.9802528572</v>
       </c>
       <c r="AE3" t="n">
-        <v>153153.2810904226</v>
+        <v>203212.9574650803</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725844692561182e-06</v>
+        <v>5.043526346710705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138536.5468951746</v>
+        <v>183818.5980158479</v>
       </c>
     </row>
     <row r="4">
@@ -4574,28 +4574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.1999889545766</v>
+        <v>131.5912796904837</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.6757542173227</v>
+        <v>180.0489942699762</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.6772260955752</v>
+        <v>162.8653709572507</v>
       </c>
       <c r="AD4" t="n">
-        <v>107199.9889545766</v>
+        <v>131591.2796904837</v>
       </c>
       <c r="AE4" t="n">
-        <v>146675.7542173227</v>
+        <v>180048.9942699762</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.893273332320572e-06</v>
+        <v>5.353313165499343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.25390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>132677.2260955752</v>
+        <v>162865.3709572507</v>
       </c>
     </row>
     <row r="5">
@@ -4680,28 +4680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.0008149559633</v>
+        <v>128.3921056918705</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.2985032148264</v>
+        <v>175.6717432674799</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.7177337852454</v>
+        <v>158.9058786469209</v>
       </c>
       <c r="AD5" t="n">
-        <v>104000.8149559633</v>
+        <v>128392.1056918704</v>
       </c>
       <c r="AE5" t="n">
-        <v>142298.5032148264</v>
+        <v>175671.7432674799</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.007063185774779e-06</v>
+        <v>5.563854186215167e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>128717.7337852454</v>
+        <v>158905.8786469209</v>
       </c>
     </row>
     <row r="6">
@@ -4786,28 +4786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.28389050588193</v>
+        <v>125.7853514923443</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.1621579173512</v>
+        <v>172.1050671698113</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.5031730214167</v>
+        <v>155.6796011101512</v>
       </c>
       <c r="AD6" t="n">
-        <v>89283.89050588192</v>
+        <v>125785.3514923443</v>
       </c>
       <c r="AE6" t="n">
-        <v>122162.1579173512</v>
+        <v>172105.0671698113</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.100709317479042e-06</v>
+        <v>5.73712404777658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.90234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>110503.1730214167</v>
+        <v>155679.6011101512</v>
       </c>
     </row>
     <row r="7">
@@ -4892,28 +4892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.41474481317977</v>
+        <v>125.9162057996422</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.3411985534806</v>
+        <v>172.2841078059407</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.6651262705191</v>
+        <v>155.8415543592536</v>
       </c>
       <c r="AD7" t="n">
-        <v>89414.74481317977</v>
+        <v>125916.2057996422</v>
       </c>
       <c r="AE7" t="n">
-        <v>122341.1985534806</v>
+        <v>172284.1078059407</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097744945912132e-06</v>
+        <v>5.731639184262547e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>110665.1262705191</v>
+        <v>155841.5543592536</v>
       </c>
     </row>
   </sheetData>
@@ -5189,28 +5189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8119287256722</v>
+        <v>256.0752173766227</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.8644724300399</v>
+        <v>350.3734096558019</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.2500385701439</v>
+        <v>316.9342631905258</v>
       </c>
       <c r="AD2" t="n">
-        <v>203811.9287256722</v>
+        <v>256075.2173766227</v>
       </c>
       <c r="AE2" t="n">
-        <v>278864.4724300399</v>
+        <v>350373.409655802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.777034759799438e-06</v>
+        <v>3.117325368986397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.001302083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>252250.038570144</v>
+        <v>316934.2631905258</v>
       </c>
     </row>
     <row r="3">
@@ -5295,28 +5295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.9840987630182</v>
+        <v>214.2455932692974</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.4209636810571</v>
+        <v>293.140272559414</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.5709629368393</v>
+        <v>265.1633763713864</v>
       </c>
       <c r="AD3" t="n">
-        <v>174984.0987630181</v>
+        <v>214245.5932692974</v>
       </c>
       <c r="AE3" t="n">
-        <v>239420.9636810571</v>
+        <v>293140.272559414</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003392618069844e-06</v>
+        <v>3.514408819472983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216570.9629368393</v>
+        <v>265163.3763713864</v>
       </c>
     </row>
     <row r="4">
@@ -5401,28 +5401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8829599112545</v>
+        <v>192.2297057635543</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.1812104706575</v>
+        <v>263.0171640016636</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.2172493310704</v>
+        <v>237.9151750163297</v>
       </c>
       <c r="AD4" t="n">
-        <v>152882.9599112545</v>
+        <v>192229.7057635543</v>
       </c>
       <c r="AE4" t="n">
-        <v>209181.2104706575</v>
+        <v>263017.1640016636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.170895249322522e-06</v>
+        <v>3.808246741830157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>189217.2493310704</v>
+        <v>237915.1750163297</v>
       </c>
     </row>
     <row r="5">
@@ -5507,28 +5507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.2341211927905</v>
+        <v>186.4102748444982</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.452220126883</v>
+        <v>255.0547618830422</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.2259029779972</v>
+        <v>230.7126933806055</v>
       </c>
       <c r="AD5" t="n">
-        <v>147234.1211927905</v>
+        <v>186410.2748444982</v>
       </c>
       <c r="AE5" t="n">
-        <v>201452.220126883</v>
+        <v>255054.7618830422</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.293366534337518e-06</v>
+        <v>4.023089384408911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>182225.9029779972</v>
+        <v>230712.6933806055</v>
       </c>
     </row>
     <row r="6">
@@ -5613,28 +5613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.9415845809332</v>
+        <v>182.1194428687609</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.7918086416786</v>
+        <v>249.1838562756947</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.8236079573371</v>
+        <v>225.4020987645536</v>
       </c>
       <c r="AD6" t="n">
-        <v>129941.5845809332</v>
+        <v>182119.4428687609</v>
       </c>
       <c r="AE6" t="n">
-        <v>177791.8086416786</v>
+        <v>249183.8562756947</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391094601463429e-06</v>
+        <v>4.194526764141422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.944010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>160823.6079573371</v>
+        <v>225402.0987645536</v>
       </c>
     </row>
     <row r="7">
@@ -5719,28 +5719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.7477279012894</v>
+        <v>166.0091328990177</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.4218330295799</v>
+        <v>227.1410194383884</v>
       </c>
       <c r="AC7" t="n">
-        <v>156.8706966843565</v>
+        <v>205.462999337677</v>
       </c>
       <c r="AD7" t="n">
-        <v>126747.7279012894</v>
+        <v>166009.1328990177</v>
       </c>
       <c r="AE7" t="n">
-        <v>173421.8330295799</v>
+        <v>227141.0194383884</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.472771243039051e-06</v>
+        <v>4.337806272565911e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.748697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>156870.6966843565</v>
+        <v>205462.999337677</v>
       </c>
     </row>
     <row r="8">
@@ -5825,28 +5825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.8776782285134</v>
+        <v>163.1390832262416</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.4949044496344</v>
+        <v>223.2140908584429</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.3185486566009</v>
+        <v>201.9108513099214</v>
       </c>
       <c r="AD8" t="n">
-        <v>123877.6782285134</v>
+        <v>163139.0832262416</v>
       </c>
       <c r="AE8" t="n">
-        <v>169494.9044496344</v>
+        <v>223214.0908584429</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.543572224854068e-06</v>
+        <v>4.462007386553129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.592447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>153318.5486566008</v>
+        <v>201910.8513099214</v>
       </c>
     </row>
     <row r="9">
@@ -5931,28 +5931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.0244980588314</v>
+        <v>160.1153108559675</v>
       </c>
       <c r="AB9" t="n">
-        <v>165.5910574680521</v>
+        <v>219.0768321020137</v>
       </c>
       <c r="AC9" t="n">
-        <v>149.7872793518559</v>
+        <v>198.1684467225253</v>
       </c>
       <c r="AD9" t="n">
-        <v>121024.4980588314</v>
+        <v>160115.3108559675</v>
       </c>
       <c r="AE9" t="n">
-        <v>165591.0574680521</v>
+        <v>219076.8321020137</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616447880719803e-06</v>
+        <v>4.589847953294445e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>149787.2793518559</v>
+        <v>198168.4467225253</v>
       </c>
     </row>
     <row r="10">
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.8452186005138</v>
+        <v>159.9360313976498</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.3457594039305</v>
+        <v>218.8315340378921</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.565392190696</v>
+        <v>197.9465595613655</v>
       </c>
       <c r="AD10" t="n">
-        <v>120845.2186005138</v>
+        <v>159936.0313976498</v>
       </c>
       <c r="AE10" t="n">
-        <v>165345.7594039305</v>
+        <v>218831.5340378921</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.620815615563419e-06</v>
+        <v>4.597509959092546e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>149565.392190696</v>
+        <v>197946.5595613655</v>
       </c>
     </row>
     <row r="11">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>118.6364269314145</v>
+        <v>157.7272397285506</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.3235931972594</v>
+        <v>215.809367831221</v>
       </c>
       <c r="AC11" t="n">
-        <v>146.8316572851516</v>
+        <v>195.2128246558211</v>
       </c>
       <c r="AD11" t="n">
-        <v>118636.4269314145</v>
+        <v>157727.2397285506</v>
       </c>
       <c r="AE11" t="n">
-        <v>162323.5931972594</v>
+        <v>215809.367831221</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.674582431488333e-06</v>
+        <v>4.691829250467169e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>146831.6572851516</v>
+        <v>195212.8246558211</v>
       </c>
     </row>
     <row r="12">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.4150616756854</v>
+        <v>142.5894211827219</v>
       </c>
       <c r="AB12" t="n">
-        <v>159.2842232546537</v>
+        <v>195.0971366634077</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.0823605440847</v>
+        <v>176.4773397608584</v>
       </c>
       <c r="AD12" t="n">
-        <v>116415.0616756854</v>
+        <v>142589.4211827219</v>
       </c>
       <c r="AE12" t="n">
-        <v>159284.2232546537</v>
+        <v>195097.1366634077</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.728502118132775e-06</v>
+        <v>4.786416712044727e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>144082.3605440847</v>
+        <v>176477.3397608584</v>
       </c>
     </row>
     <row r="13">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.3547149861665</v>
+        <v>142.529074493203</v>
       </c>
       <c r="AB13" t="n">
-        <v>159.2016542517459</v>
+        <v>195.0145676604999</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.0076718109281</v>
+        <v>176.4026510277018</v>
       </c>
       <c r="AD13" t="n">
-        <v>116354.7149861665</v>
+        <v>142529.074493203</v>
       </c>
       <c r="AE13" t="n">
-        <v>159201.6542517459</v>
+        <v>195014.5676604999</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.721884999844696e-06</v>
+        <v>4.774808773260603e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>144007.6718109281</v>
+        <v>176402.6510277017</v>
       </c>
     </row>
     <row r="14">
@@ -6461,28 +6461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.4445364354282</v>
+        <v>142.6188959424647</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.3245519212684</v>
+        <v>195.1374653300224</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.1188402993594</v>
+        <v>176.513819516133</v>
       </c>
       <c r="AD14" t="n">
-        <v>116444.5364354282</v>
+        <v>142618.8959424647</v>
       </c>
       <c r="AE14" t="n">
-        <v>159324.5519212683</v>
+        <v>195137.4653300224</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.721229839618153e-06</v>
+        <v>4.773659472390888e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>144118.8402993594</v>
+        <v>176513.819516133</v>
       </c>
     </row>
   </sheetData>
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.83970871166167</v>
+        <v>134.3098883640026</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.8686058425529</v>
+        <v>183.7687145936329</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.0923739867437</v>
+        <v>166.230086393879</v>
       </c>
       <c r="AD2" t="n">
-        <v>97839.70871166167</v>
+        <v>134309.8883640026</v>
       </c>
       <c r="AE2" t="n">
-        <v>133868.6058425529</v>
+        <v>183768.7145936329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71987746430357e-06</v>
+        <v>6.802207127996274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>121092.3739867437</v>
+        <v>166230.086393879</v>
       </c>
     </row>
   </sheetData>
@@ -7055,28 +7055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.96458687485134</v>
+        <v>109.321086943308</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3063432000649</v>
+        <v>149.5779340617426</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.2560536034583</v>
+        <v>135.3024259688795</v>
       </c>
       <c r="AD2" t="n">
-        <v>76964.58687485133</v>
+        <v>109321.086943308</v>
       </c>
       <c r="AE2" t="n">
-        <v>105306.3432000649</v>
+        <v>149577.9340617426</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.410717658923217e-06</v>
+        <v>7.02363445533551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95256.05360345829</v>
+        <v>135302.4259688795</v>
       </c>
     </row>
   </sheetData>
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.4739915145763</v>
+        <v>171.2747133393985</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.9932477639678</v>
+        <v>234.3456188979279</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4331904335715</v>
+        <v>211.9800019365192</v>
       </c>
       <c r="AD2" t="n">
-        <v>134473.9915145763</v>
+        <v>171274.7133393985</v>
       </c>
       <c r="AE2" t="n">
-        <v>183993.2477639678</v>
+        <v>234345.6188979279</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.432832087054379e-06</v>
+        <v>4.472329282975085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166433.1904335715</v>
+        <v>211980.0019365193</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.5357636316465</v>
+        <v>151.4217368024893</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.7128847620227</v>
+        <v>207.1819005486321</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.7564269882935</v>
+        <v>187.4087507419534</v>
       </c>
       <c r="AD3" t="n">
-        <v>114535.7636316466</v>
+        <v>151421.7368024893</v>
       </c>
       <c r="AE3" t="n">
-        <v>156712.8847620227</v>
+        <v>207181.9005486321</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.660063190301104e-06</v>
+        <v>4.890053269131285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.670572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>141756.4269882935</v>
+        <v>187408.7507419534</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.9876382107574</v>
+        <v>146.703019181008</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.4899389120329</v>
+        <v>200.7255429237954</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.1273903562654</v>
+        <v>181.5685788272743</v>
       </c>
       <c r="AD4" t="n">
-        <v>109987.6382107574</v>
+        <v>146703.019181008</v>
       </c>
       <c r="AE4" t="n">
-        <v>150489.9389120329</v>
+        <v>200725.5429237954</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.816206397944954e-06</v>
+        <v>5.177094797233113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>136127.3903562654</v>
+        <v>181568.5788272743</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.7452483416221</v>
+        <v>131.335986630735</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.0535580489387</v>
+        <v>179.6996910428933</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.1144114562438</v>
+        <v>162.5494047399103</v>
       </c>
       <c r="AD5" t="n">
-        <v>106745.2483416221</v>
+        <v>131335.986630735</v>
       </c>
       <c r="AE5" t="n">
-        <v>146053.5580489387</v>
+        <v>179699.6910428933</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.928964910748731e-06</v>
+        <v>5.384381276805833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>132114.4114562438</v>
+        <v>162549.4047399103</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.55911922493807</v>
+        <v>128.3597515412092</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.2752262267691</v>
+        <v>175.6274748911809</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.3191344606035</v>
+        <v>158.8658351823248</v>
       </c>
       <c r="AD6" t="n">
-        <v>91559.11922493807</v>
+        <v>128359.7515412092</v>
       </c>
       <c r="AE6" t="n">
-        <v>125275.2262267691</v>
+        <v>175627.4748911809</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.022938059155658e-06</v>
+        <v>5.557134203598462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>113319.1344606036</v>
+        <v>158865.8351823248</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.60824358948774</v>
+        <v>128.4088759057589</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.34244034956</v>
+        <v>175.6946890139717</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.3799337618509</v>
+        <v>158.926634483572</v>
       </c>
       <c r="AD7" t="n">
-        <v>91608.24358948774</v>
+        <v>128408.8759057589</v>
       </c>
       <c r="AE7" t="n">
-        <v>125342.44034956</v>
+        <v>175694.6890139717</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.014413997382489e-06</v>
+        <v>5.541464231436844e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>113379.9337618509</v>
+        <v>158926.634483572</v>
       </c>
     </row>
   </sheetData>
@@ -8179,28 +8179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.76091862221823</v>
+        <v>114.4594997539668</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5006517791461</v>
+        <v>156.6085371600566</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.95462466201151</v>
+        <v>141.6620381750061</v>
       </c>
       <c r="AD2" t="n">
-        <v>80760.91862221823</v>
+        <v>114459.4997539668</v>
       </c>
       <c r="AE2" t="n">
-        <v>110500.6517791461</v>
+        <v>156608.5371600566</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.325498062453458e-06</v>
+        <v>6.588423925097368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>99954.62466201151</v>
+        <v>141662.0381750061</v>
       </c>
     </row>
     <row r="3">
@@ -8285,28 +8285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.80378250048857</v>
+        <v>114.5023636322372</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.5593000284164</v>
+        <v>156.6671854093268</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0076756046848</v>
+        <v>141.7150891176794</v>
       </c>
       <c r="AD3" t="n">
-        <v>80803.78250048857</v>
+        <v>114502.3636322372</v>
       </c>
       <c r="AE3" t="n">
-        <v>110559.3000284164</v>
+        <v>156667.1854093268</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.324642771228064e-06</v>
+        <v>6.58672943571067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>100007.6756046848</v>
+        <v>141715.0891176794</v>
       </c>
     </row>
   </sheetData>
@@ -8582,28 +8582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.3552554572071</v>
+        <v>225.549741499617</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.5605525274382</v>
+        <v>308.6071068719526</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.7926682161269</v>
+        <v>279.1540777249796</v>
       </c>
       <c r="AD2" t="n">
-        <v>174355.2554572071</v>
+        <v>225549.741499617</v>
       </c>
       <c r="AE2" t="n">
-        <v>238560.5525274382</v>
+        <v>308607.1068719526</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967704618933986e-06</v>
+        <v>3.499516518176629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215792.6682161269</v>
+        <v>279154.0777249796</v>
       </c>
     </row>
     <row r="3">
@@ -8688,28 +8688,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.4141176497818</v>
+        <v>200.6938550382123</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.4349874539931</v>
+        <v>274.5981864511566</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.9239991777491</v>
+        <v>248.390920937314</v>
       </c>
       <c r="AD3" t="n">
-        <v>149414.1176497818</v>
+        <v>200693.8550382123</v>
       </c>
       <c r="AE3" t="n">
-        <v>204434.9874539931</v>
+        <v>274598.1864511566</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.190417068007021e-06</v>
+        <v>3.895605385801941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184923.9991777491</v>
+        <v>248390.920937314</v>
       </c>
     </row>
     <row r="4">
@@ -8794,28 +8794,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.9246453585353</v>
+        <v>180.3632026947663</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.1875610529166</v>
+        <v>246.7808909897883</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.6545727700348</v>
+        <v>223.2284691129504</v>
       </c>
       <c r="AD4" t="n">
-        <v>141924.6453585353</v>
+        <v>180363.2026947663</v>
       </c>
       <c r="AE4" t="n">
-        <v>194187.5610529166</v>
+        <v>246780.8909897883</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360369544867786e-06</v>
+        <v>4.197861880174296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>175654.5727700348</v>
+        <v>223228.4691129504</v>
       </c>
     </row>
     <row r="5">
@@ -8900,28 +8900,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.1771795443711</v>
+        <v>162.7009882266226</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.9046953630563</v>
+        <v>222.6146699525772</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.689229700391</v>
+        <v>201.3686382940188</v>
       </c>
       <c r="AD5" t="n">
-        <v>124177.1795443711</v>
+        <v>162700.9882266226</v>
       </c>
       <c r="AE5" t="n">
-        <v>169904.6953630563</v>
+        <v>222614.6699525772</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.490991052135838e-06</v>
+        <v>4.430169167515686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>153689.229700391</v>
+        <v>201368.6382940188</v>
       </c>
     </row>
     <row r="6">
@@ -9006,28 +9006,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.9830459228343</v>
+        <v>159.5068546050858</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.5343408268417</v>
+        <v>218.2443154163627</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.7359756672803</v>
+        <v>197.4153842609081</v>
       </c>
       <c r="AD6" t="n">
-        <v>120983.0459228343</v>
+        <v>159506.8546050858</v>
       </c>
       <c r="AE6" t="n">
-        <v>165534.3408268417</v>
+        <v>218244.3154163627</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.574144147826479e-06</v>
+        <v>4.578054998095566e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>149735.9756672803</v>
+        <v>197415.3842609081</v>
       </c>
     </row>
     <row r="7">
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.9379391179813</v>
+        <v>156.2911555996407</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.367891355813</v>
+        <v>213.8444541704871</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.9671662861167</v>
+        <v>193.4354395970934</v>
       </c>
       <c r="AD7" t="n">
-        <v>117937.9391179813</v>
+        <v>156291.1555996407</v>
       </c>
       <c r="AE7" t="n">
-        <v>161367.891355813</v>
+        <v>213844.4541704871</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.665434685501819e-06</v>
+        <v>4.740413078405991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>145967.1662861166</v>
+        <v>193435.4395970934</v>
       </c>
     </row>
     <row r="8">
@@ -9218,28 +9218,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.4218034483776</v>
+        <v>153.7750199300369</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.9252035285915</v>
+        <v>210.4017663432655</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.8530437532813</v>
+        <v>190.3213170642581</v>
       </c>
       <c r="AD8" t="n">
-        <v>115421.8034483776</v>
+        <v>153775.0199300369</v>
       </c>
       <c r="AE8" t="n">
-        <v>157925.2035285915</v>
+        <v>210401.7663432655</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.733624670657754e-06</v>
+        <v>4.86168736781468e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>142853.0437532813</v>
+        <v>190321.3170642581</v>
       </c>
     </row>
     <row r="9">
@@ -9324,28 +9324,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.1209330720484</v>
+        <v>139.8035617021005</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.1452952893482</v>
+        <v>191.2854008185772</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.2430074582739</v>
+        <v>173.0293906352524</v>
       </c>
       <c r="AD9" t="n">
-        <v>114120.9330720484</v>
+        <v>139803.5617021005</v>
       </c>
       <c r="AE9" t="n">
-        <v>156145.2952893482</v>
+        <v>191285.4008185772</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.773111274386786e-06</v>
+        <v>4.931913366507157e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>141243.0074582739</v>
+        <v>173029.3906352524</v>
       </c>
     </row>
     <row r="10">
@@ -9430,28 +9430,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.0299645384408</v>
+        <v>137.7125931684928</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.2843398946464</v>
+        <v>188.4244454238754</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.6550976310655</v>
+        <v>170.4414808080439</v>
       </c>
       <c r="AD10" t="n">
-        <v>112029.9645384408</v>
+        <v>137712.5931684928</v>
       </c>
       <c r="AE10" t="n">
-        <v>153284.3398946464</v>
+        <v>188424.4454238754</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.82569337901469e-06</v>
+        <v>5.02542940643267e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>138655.0976310655</v>
+        <v>170441.4808080439</v>
       </c>
     </row>
     <row r="11">
@@ -9536,28 +9536,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>112.1355882691272</v>
+        <v>137.8182168991793</v>
       </c>
       <c r="AB11" t="n">
-        <v>153.4288589427616</v>
+        <v>188.5689644719906</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.7858239840624</v>
+        <v>170.5722071610408</v>
       </c>
       <c r="AD11" t="n">
-        <v>112135.5882691272</v>
+        <v>137818.2168991793</v>
       </c>
       <c r="AE11" t="n">
-        <v>153428.8589427616</v>
+        <v>188568.9644719906</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.82229166146371e-06</v>
+        <v>5.019379531545311e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>138785.8239840624</v>
+        <v>170572.2071610408</v>
       </c>
     </row>
     <row r="12">
@@ -9642,28 +9642,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>112.1679478691117</v>
+        <v>137.8505764991637</v>
       </c>
       <c r="AB12" t="n">
-        <v>153.4731347750651</v>
+        <v>188.6132403042942</v>
       </c>
       <c r="AC12" t="n">
-        <v>138.8258741930724</v>
+        <v>170.6122573700508</v>
       </c>
       <c r="AD12" t="n">
-        <v>112167.9478691117</v>
+        <v>137850.5764991637</v>
       </c>
       <c r="AE12" t="n">
-        <v>153473.1347750651</v>
+        <v>188613.2403042942</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.822091560431299e-06</v>
+        <v>5.019023656551937e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>138825.8741930724</v>
+        <v>170612.2573700508</v>
       </c>
     </row>
   </sheetData>
@@ -9939,28 +9939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.6314947151549</v>
+        <v>138.7520389127139</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.7931829680934</v>
+        <v>189.8466609482278</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.260640593639</v>
+        <v>171.7279620788446</v>
       </c>
       <c r="AD2" t="n">
-        <v>103631.4947151549</v>
+        <v>138752.0389127139</v>
       </c>
       <c r="AE2" t="n">
-        <v>141793.1829680934</v>
+        <v>189846.6609482278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932660476855635e-06</v>
+        <v>5.59010347341259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128260.640593639</v>
+        <v>171727.9620788446</v>
       </c>
     </row>
     <row r="3">
@@ -10045,28 +10045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.81800742475333</v>
+        <v>122.3455211987385</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.2071573012974</v>
+        <v>167.3985396074999</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.3031759729348</v>
+        <v>151.4222579327325</v>
       </c>
       <c r="AD3" t="n">
-        <v>98818.00742475333</v>
+        <v>122345.5211987385</v>
       </c>
       <c r="AE3" t="n">
-        <v>135207.1573012974</v>
+        <v>167398.5396074999</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.134887111798089e-06</v>
+        <v>5.975578649734545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122303.1759729348</v>
+        <v>151422.2579327325</v>
       </c>
     </row>
     <row r="4">
@@ -10151,28 +10151,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.76496955172621</v>
+        <v>120.9707650953058</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.3474150240418</v>
+        <v>165.5175376568254</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.1479424323091</v>
+        <v>149.7207761682269</v>
       </c>
       <c r="AD4" t="n">
-        <v>85764.96955172622</v>
+        <v>120970.7650953058</v>
       </c>
       <c r="AE4" t="n">
-        <v>117347.4150240418</v>
+        <v>165517.5376568254</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183445650648152e-06</v>
+        <v>6.068138718938538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>106147.9424323091</v>
+        <v>149720.7761682269</v>
       </c>
     </row>
   </sheetData>
@@ -10448,28 +10448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.0398604797483</v>
+        <v>180.5849652212962</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7134475815782</v>
+        <v>247.0843162620585</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0348308299967</v>
+        <v>223.5029359030952</v>
       </c>
       <c r="AD2" t="n">
-        <v>143039.8604797483</v>
+        <v>180584.9652212962</v>
       </c>
       <c r="AE2" t="n">
-        <v>195713.4475815782</v>
+        <v>247084.3162620584</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.258358047447554e-06</v>
+        <v>4.101938266155207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>177034.8308299967</v>
+        <v>223502.9359030952</v>
       </c>
     </row>
     <row r="3">
@@ -10554,28 +10554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.6699693928505</v>
+        <v>171.4456395330089</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.4742198234421</v>
+        <v>234.579487656757</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.5861539315739</v>
+        <v>212.1915505892426</v>
       </c>
       <c r="AD3" t="n">
-        <v>121669.9693928505</v>
+        <v>171445.6395330089</v>
       </c>
       <c r="AE3" t="n">
-        <v>166474.2198234421</v>
+        <v>234579.487656757</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.483563778378453e-06</v>
+        <v>4.510987666672979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>150586.1539315739</v>
+        <v>212191.5505892426</v>
       </c>
     </row>
     <row r="4">
@@ -10660,28 +10660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.1134980981532</v>
+        <v>153.5732619851294</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.8716106638283</v>
+        <v>210.1257122221109</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.7091271198222</v>
+        <v>190.071609160982</v>
       </c>
       <c r="AD4" t="n">
-        <v>116113.4980981532</v>
+        <v>153573.2619851294</v>
       </c>
       <c r="AE4" t="n">
-        <v>158871.6106638283</v>
+        <v>210125.7122221109</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.65219983863051e-06</v>
+        <v>4.817287506675492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.60546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>143709.1271198222</v>
+        <v>190071.609160982</v>
       </c>
     </row>
     <row r="5">
@@ -10766,28 +10766,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.6828313838459</v>
+        <v>149.9720030702299</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.1776211149817</v>
+        <v>205.1983108984174</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.4631253454603</v>
+        <v>185.614472103969</v>
       </c>
       <c r="AD5" t="n">
-        <v>112682.8313838459</v>
+        <v>149972.0030702299</v>
       </c>
       <c r="AE5" t="n">
-        <v>154177.6211149817</v>
+        <v>205198.3108984174</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.758125291394765e-06</v>
+        <v>5.009683778181063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>139463.1253454603</v>
+        <v>185614.472103969</v>
       </c>
     </row>
     <row r="6">
@@ -10872,28 +10872,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.9450471590678</v>
+        <v>133.9183125922697</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.0634198392409</v>
+        <v>183.2329433476444</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.837016261648</v>
+        <v>165.7454484036477</v>
       </c>
       <c r="AD6" t="n">
-        <v>108945.0471590678</v>
+        <v>133918.3125922697</v>
       </c>
       <c r="AE6" t="n">
-        <v>149063.4198392409</v>
+        <v>183232.9433476444</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.883135588665683e-06</v>
+        <v>5.236744550328587e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>134837.016261648</v>
+        <v>165745.4484036478</v>
       </c>
     </row>
     <row r="7">
@@ -10978,28 +10978,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.2290933723046</v>
+        <v>132.2023588055065</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.7155761656544</v>
+        <v>180.8850996740579</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.7132474930486</v>
+        <v>163.6216796350483</v>
       </c>
       <c r="AD7" t="n">
-        <v>107229.0933723046</v>
+        <v>132202.3588055065</v>
       </c>
       <c r="AE7" t="n">
-        <v>146715.5761656544</v>
+        <v>180885.0996740579</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.934819904411e-06</v>
+        <v>5.330620662114925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>132713.2474930486</v>
+        <v>163621.6796350483</v>
       </c>
     </row>
     <row r="8">
@@ -11084,28 +11084,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.5263922426986</v>
+        <v>131.4996576759005</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.7541094791421</v>
+        <v>179.9236329875456</v>
       </c>
       <c r="AC8" t="n">
-        <v>131.8435418376698</v>
+        <v>162.7519739796695</v>
       </c>
       <c r="AD8" t="n">
-        <v>106526.3922426986</v>
+        <v>131499.6576759005</v>
       </c>
       <c r="AE8" t="n">
-        <v>145754.1094791421</v>
+        <v>179923.6329875456</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.958698788805701e-06</v>
+        <v>5.373992752631052e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>131843.5418376698</v>
+        <v>162751.9739796695</v>
       </c>
     </row>
     <row r="9">
@@ -11190,28 +11190,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>106.5885393080006</v>
+        <v>131.5618047412025</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.8391418356233</v>
+        <v>180.0086653440267</v>
       </c>
       <c r="AC9" t="n">
-        <v>131.920458825392</v>
+        <v>162.8288909673918</v>
       </c>
       <c r="AD9" t="n">
-        <v>106588.5393080006</v>
+        <v>131561.8047412025</v>
       </c>
       <c r="AE9" t="n">
-        <v>145839.1418356232</v>
+        <v>180008.6653440267</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957945439680438e-06</v>
+        <v>5.372624417079397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>131920.458825392</v>
+        <v>162828.8909673918</v>
       </c>
     </row>
   </sheetData>
@@ -11487,28 +11487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.9745523754133</v>
+        <v>105.9015268663458</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.2659313726662</v>
+        <v>144.8991411041018</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1696740627487</v>
+        <v>131.0701704443874</v>
       </c>
       <c r="AD2" t="n">
-        <v>84974.5523754133</v>
+        <v>105901.5268663458</v>
       </c>
       <c r="AE2" t="n">
-        <v>116265.9313726663</v>
+        <v>144899.1411041018</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429909175476648e-06</v>
+        <v>7.304808926469761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>105169.6740627487</v>
+        <v>131070.1704443874</v>
       </c>
     </row>
   </sheetData>
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.10416191050751</v>
+        <v>110.9342091945365</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.8655600383513</v>
+        <v>151.7850790918033</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.66646097507372</v>
+        <v>137.2989241750195</v>
       </c>
       <c r="AD2" t="n">
-        <v>78104.16191050751</v>
+        <v>110934.2091945365</v>
       </c>
       <c r="AE2" t="n">
-        <v>106865.5600383513</v>
+        <v>151785.0790918033</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.393979727637569e-06</v>
+        <v>6.890952253357158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>96666.46097507371</v>
+        <v>137298.9241750195</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.2552977824304</v>
+        <v>230.9551277821845</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.2650066114159</v>
+        <v>316.0029948525702</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.8572586120924</v>
+        <v>285.8441125369234</v>
       </c>
       <c r="AD2" t="n">
-        <v>179255.2977824304</v>
+        <v>230955.1277821845</v>
       </c>
       <c r="AE2" t="n">
-        <v>245265.0066114159</v>
+        <v>316002.9948525702</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.906040412915519e-06</v>
+        <v>3.373786655788096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.545572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>221857.2586120924</v>
+        <v>285844.1125369234</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7537770106656</v>
+        <v>204.368266155848</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.0044567269244</v>
+        <v>279.6256778458812</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.0573647165638</v>
+        <v>252.9385956094561</v>
       </c>
       <c r="AD3" t="n">
-        <v>152753.7770106656</v>
+        <v>204368.266155848</v>
       </c>
       <c r="AE3" t="n">
-        <v>209004.4567269245</v>
+        <v>279625.6778458811</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138130267034093e-06</v>
+        <v>3.784597280506868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>189057.3647165638</v>
+        <v>252938.5956094561</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.4658378548826</v>
+        <v>184.1554590086776</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.0327768528034</v>
+        <v>251.9696233810199</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.0373679742851</v>
+        <v>227.9219961671962</v>
       </c>
       <c r="AD4" t="n">
-        <v>145465.8378548826</v>
+        <v>184155.4590086775</v>
       </c>
       <c r="AE4" t="n">
-        <v>199032.7768528035</v>
+        <v>251969.6233810199</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297629892572307e-06</v>
+        <v>4.066919577871439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.263020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>180037.3679742851</v>
+        <v>227921.9961671962</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.7872514625995</v>
+        <v>179.3163997532103</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.8441550267066</v>
+        <v>245.3486090234657</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.1572742663193</v>
+        <v>221.9328821272728</v>
       </c>
       <c r="AD5" t="n">
-        <v>127787.2514625995</v>
+        <v>179316.3997532103</v>
       </c>
       <c r="AE5" t="n">
-        <v>174844.1550267066</v>
+        <v>245348.6090234657</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408581350015834e-06</v>
+        <v>4.26330919481069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>158157.2742663193</v>
+        <v>221932.8821272728</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.9939392904164</v>
+        <v>162.768811790232</v>
       </c>
       <c r="AB6" t="n">
-        <v>169.6539779636061</v>
+        <v>222.7074691444718</v>
       </c>
       <c r="AC6" t="n">
-        <v>153.4624404176602</v>
+        <v>201.4525808612836</v>
       </c>
       <c r="AD6" t="n">
-        <v>123993.9392904164</v>
+        <v>162768.811790232</v>
       </c>
       <c r="AE6" t="n">
-        <v>169653.9779636061</v>
+        <v>222707.4691444718</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510517034777234e-06</v>
+        <v>4.443740444151611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>153462.4404176602</v>
+        <v>201452.5808612836</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.9319829381893</v>
+        <v>159.7068554380049</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.4644741985106</v>
+        <v>218.5179653793764</v>
       </c>
       <c r="AC7" t="n">
-        <v>149.6727770118986</v>
+        <v>197.662917455522</v>
       </c>
       <c r="AD7" t="n">
-        <v>120931.9829381893</v>
+        <v>159706.8554380049</v>
       </c>
       <c r="AE7" t="n">
-        <v>165464.4741985106</v>
+        <v>218517.9653793764</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.596984482093808e-06</v>
+        <v>4.596792141240495e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>149672.7770118986</v>
+        <v>197662.917455522</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.3585121229018</v>
+        <v>155.9627924221252</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.5750937786308</v>
+        <v>213.3951731846497</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.2500321970021</v>
+        <v>193.0290373579744</v>
       </c>
       <c r="AD8" t="n">
-        <v>117358.5121229018</v>
+        <v>155962.7924221252</v>
       </c>
       <c r="AE8" t="n">
-        <v>160575.0937786308</v>
+        <v>213395.1731846496</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.685993139847747e-06</v>
+        <v>4.754341907627928e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>145250.0321970021</v>
+        <v>193029.0373579744</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.849050209072</v>
+        <v>155.4533305082953</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.8780255122557</v>
+        <v>212.6981049182746</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.6194911476282</v>
+        <v>192.3984963086005</v>
       </c>
       <c r="AD9" t="n">
-        <v>116849.050209072</v>
+        <v>155453.3305082953</v>
       </c>
       <c r="AE9" t="n">
-        <v>159878.0255122557</v>
+        <v>212698.1049182746</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.705637801402675e-06</v>
+        <v>4.789113938988015e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>144619.4911476282</v>
+        <v>192398.4963086005</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.7557729359187</v>
+        <v>140.6057774443468</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.0139111982532</v>
+        <v>192.3830277883788</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.0287238839435</v>
+        <v>174.0222616275856</v>
       </c>
       <c r="AD10" t="n">
-        <v>114755.7729359187</v>
+        <v>140605.7774443468</v>
       </c>
       <c r="AE10" t="n">
-        <v>157013.9111982532</v>
+        <v>192383.0277883788</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.7577878590738e-06</v>
+        <v>4.881422143723452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>142028.7238839435</v>
+        <v>174022.2616275856</v>
       </c>
     </row>
     <row r="11">
@@ -13035,28 +13035,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.6638307041408</v>
+        <v>139.5138352125689</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.5198676636441</v>
+        <v>190.8889842537697</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.6772697673737</v>
+        <v>172.6708075110158</v>
       </c>
       <c r="AD11" t="n">
-        <v>113663.8307041408</v>
+        <v>139513.8352125689</v>
       </c>
       <c r="AE11" t="n">
-        <v>155519.8676636441</v>
+        <v>190888.9842537697</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.779266611640043e-06</v>
+        <v>4.919440607707709e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>140677.2697673737</v>
+        <v>172670.8075110158</v>
       </c>
     </row>
     <row r="12">
@@ -13141,28 +13141,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.5935404619433</v>
+        <v>139.4435449703714</v>
       </c>
       <c r="AB12" t="n">
-        <v>155.4236934532829</v>
+        <v>190.7928100434084</v>
       </c>
       <c r="AC12" t="n">
-        <v>140.590274288668</v>
+        <v>172.5838120323101</v>
       </c>
       <c r="AD12" t="n">
-        <v>113593.5404619433</v>
+        <v>139443.5449703714</v>
       </c>
       <c r="AE12" t="n">
-        <v>155423.6934532828</v>
+        <v>190792.8100434084</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.778294322429226e-06</v>
+        <v>4.917719607280438e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>140590.2742886679</v>
+        <v>172583.8120323101</v>
       </c>
     </row>
   </sheetData>
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.01650707095015</v>
+        <v>111.985379761338</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2186032873532</v>
+        <v>153.2233370356729</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5086172894359</v>
+        <v>138.5999167993344</v>
       </c>
       <c r="AD2" t="n">
-        <v>82016.50707095016</v>
+        <v>111985.379761338</v>
       </c>
       <c r="AE2" t="n">
-        <v>112218.6032873532</v>
+        <v>153223.3370356729</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.382371054120803e-06</v>
+        <v>7.531879679144232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101508.6172894359</v>
+        <v>138599.9167993343</v>
       </c>
     </row>
   </sheetData>
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4385308722476</v>
+        <v>143.0702218550226</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0021377928066</v>
+        <v>195.7549893546779</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9724600806973</v>
+        <v>177.0724079145759</v>
       </c>
       <c r="AD2" t="n">
-        <v>107438.5308722476</v>
+        <v>143070.2218550226</v>
       </c>
       <c r="AE2" t="n">
-        <v>147002.1377928066</v>
+        <v>195754.9893546778</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.810933380335107e-06</v>
+        <v>5.314810710456775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>132972.4600806973</v>
+        <v>177072.4079145759</v>
       </c>
     </row>
     <row r="3">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.032411991549</v>
+        <v>125.7869621552834</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6052474391061</v>
+        <v>172.107270949902</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.2815185607507</v>
+        <v>155.6815945645631</v>
       </c>
       <c r="AD3" t="n">
-        <v>102032.411991549</v>
+        <v>125786.9621552834</v>
       </c>
       <c r="AE3" t="n">
-        <v>139605.2474391061</v>
+        <v>172107.270949902</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02766338642784e-06</v>
+        <v>5.724595931877319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>126281.5185607507</v>
+        <v>155681.5945645631</v>
       </c>
     </row>
     <row r="4">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.06431927101357</v>
+        <v>122.610669399217</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.1252426332338</v>
+        <v>167.7613270729074</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.7560966696771</v>
+        <v>151.750421471617</v>
       </c>
       <c r="AD4" t="n">
-        <v>87064.31927101358</v>
+        <v>122610.669399217</v>
       </c>
       <c r="AE4" t="n">
-        <v>119125.2426332338</v>
+        <v>167761.3270729074</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149536624920751e-06</v>
+        <v>5.95502942339712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>107756.0966696771</v>
+        <v>151750.421471617</v>
       </c>
     </row>
     <row r="5">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.80445596364532</v>
+        <v>122.3508060918487</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.7696861917327</v>
+        <v>167.4057706314063</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.4344740359262</v>
+        <v>151.4287988378661</v>
       </c>
       <c r="AD5" t="n">
-        <v>86804.45596364532</v>
+        <v>122350.8060918487</v>
       </c>
       <c r="AE5" t="n">
-        <v>118769.6861917327</v>
+        <v>167405.7706314063</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162721811335358e-06</v>
+        <v>5.979959494833878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.928385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>107434.4740359262</v>
+        <v>151428.7988378661</v>
       </c>
     </row>
   </sheetData>
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.62381690681111</v>
+        <v>110.022583861207</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3130631636254</v>
+        <v>150.5377530926713</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.78493924067376</v>
+        <v>136.1706412186113</v>
       </c>
       <c r="AD2" t="n">
-        <v>80623.81690681112</v>
+        <v>110022.583861207</v>
       </c>
       <c r="AE2" t="n">
-        <v>110313.0631636254</v>
+        <v>150537.7530926713</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.300254541483643e-06</v>
+        <v>7.566053822349709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99784.93924067376</v>
+        <v>136170.6412186112</v>
       </c>
     </row>
   </sheetData>
@@ -14647,28 +14647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2634799633068</v>
+        <v>197.4921627143699</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.4923900919211</v>
+        <v>270.2174897649812</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.262239177951</v>
+        <v>244.4283117945193</v>
       </c>
       <c r="AD2" t="n">
-        <v>147263.4799633069</v>
+        <v>197492.1627143699</v>
       </c>
       <c r="AE2" t="n">
-        <v>201492.3900919211</v>
+        <v>270217.4897649812</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184325514339285e-06</v>
+        <v>3.945275848528347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>182262.2391779509</v>
+        <v>244428.3117945193</v>
       </c>
     </row>
     <row r="3">
@@ -14753,28 +14753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.3525323378398</v>
+        <v>175.0027986960452</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.9317943106134</v>
+        <v>239.4465497544075</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.9958476255913</v>
+        <v>216.5941071112594</v>
       </c>
       <c r="AD3" t="n">
-        <v>137352.5323378398</v>
+        <v>175002.7986960452</v>
       </c>
       <c r="AE3" t="n">
-        <v>187931.7943106134</v>
+        <v>239446.5497544075</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.420947364455626e-06</v>
+        <v>4.372656504190593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>169995.8476255913</v>
+        <v>216594.1071112594</v>
       </c>
     </row>
     <row r="4">
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.5277419742258</v>
+        <v>157.2632596784518</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.5431297608777</v>
+        <v>215.174529857321</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.9348029907689</v>
+        <v>194.6385747271493</v>
       </c>
       <c r="AD4" t="n">
-        <v>119527.7419742258</v>
+        <v>157263.2596784518</v>
       </c>
       <c r="AE4" t="n">
-        <v>163543.1297608777</v>
+        <v>215174.529857321</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.565772542049109e-06</v>
+        <v>4.634236232883744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>147934.8029907689</v>
+        <v>194638.5747271493</v>
       </c>
     </row>
     <row r="5">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.5084405098815</v>
+        <v>153.0733660135153</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.0437441782985</v>
+        <v>209.441732499895</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.9602710497532</v>
+        <v>189.4529075034826</v>
       </c>
       <c r="AD5" t="n">
-        <v>115508.4405098815</v>
+        <v>153073.3660135153</v>
       </c>
       <c r="AE5" t="n">
-        <v>158043.7441782985</v>
+        <v>209441.732499895</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.687790248030344e-06</v>
+        <v>4.854621658654962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>142960.2710497532</v>
+        <v>189452.9075034826</v>
       </c>
     </row>
     <row r="6">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.958763866606</v>
+        <v>137.1158651779743</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.1869199942902</v>
+        <v>187.6079758614674</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.5669753492695</v>
+        <v>169.7029339547497</v>
       </c>
       <c r="AD6" t="n">
-        <v>111958.763866606</v>
+        <v>137115.8651779743</v>
       </c>
       <c r="AE6" t="n">
-        <v>153186.9199942902</v>
+        <v>187607.9758614674</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.802893163910449e-06</v>
+        <v>5.062517757993586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>138566.9753492695</v>
+        <v>169702.9339547497</v>
       </c>
     </row>
     <row r="7">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.8775515221266</v>
+        <v>135.0346528334949</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.3393134479663</v>
+        <v>184.7603693151436</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.991140375085</v>
+        <v>167.1270989805652</v>
       </c>
       <c r="AD7" t="n">
-        <v>109877.5515221266</v>
+        <v>135034.6528334949</v>
       </c>
       <c r="AE7" t="n">
-        <v>150339.3134479663</v>
+        <v>184760.3693151436</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.863561945256749e-06</v>
+        <v>5.17209624171038e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH7" t="n">
-        <v>135991.140375085</v>
+        <v>167127.0989805652</v>
       </c>
     </row>
     <row r="8">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.4635534213806</v>
+        <v>133.620654732749</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.4046188653331</v>
+        <v>182.8256747325104</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.2410903280568</v>
+        <v>165.3770489335369</v>
       </c>
       <c r="AD8" t="n">
-        <v>108463.5534213806</v>
+        <v>133620.654732749</v>
       </c>
       <c r="AE8" t="n">
-        <v>148404.6188653331</v>
+        <v>182825.6747325103</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.908451402306701e-06</v>
+        <v>5.253174491994105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>134241.0903280568</v>
+        <v>165377.0489335369</v>
       </c>
     </row>
     <row r="9">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.250075805398</v>
+        <v>133.4071771167663</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.1125293731781</v>
+        <v>182.5335852403553</v>
       </c>
       <c r="AC9" t="n">
-        <v>133.9768774470828</v>
+        <v>165.112836052563</v>
       </c>
       <c r="AD9" t="n">
-        <v>108250.075805398</v>
+        <v>133407.1771167663</v>
       </c>
       <c r="AE9" t="n">
-        <v>148112.5293731781</v>
+        <v>182533.5852403553</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.904619928447388e-06</v>
+        <v>5.24625417669211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>133976.8774470828</v>
+        <v>165112.836052563</v>
       </c>
     </row>
   </sheetData>
@@ -15686,28 +15686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.2656622610339</v>
+        <v>237.2931845621201</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.4886524496039</v>
+        <v>324.6750037542046</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.2960512334457</v>
+        <v>293.6884770802296</v>
       </c>
       <c r="AD2" t="n">
-        <v>185265.6622610339</v>
+        <v>237293.1845621201</v>
       </c>
       <c r="AE2" t="n">
-        <v>253488.6524496039</v>
+        <v>324675.0037542046</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.834115779282228e-06</v>
+        <v>3.231667651204275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.799479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229296.0512334457</v>
+        <v>293688.4770802296</v>
       </c>
     </row>
     <row r="3">
@@ -15792,28 +15792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.3763303145367</v>
+        <v>209.3185117610512</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.3292380899367</v>
+        <v>286.3988222723398</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.7785178231786</v>
+        <v>259.0653206380236</v>
       </c>
       <c r="AD3" t="n">
-        <v>157376.3303145367</v>
+        <v>209318.5117610513</v>
       </c>
       <c r="AE3" t="n">
-        <v>215329.2380899367</v>
+        <v>286398.8222723398</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.067328637418224e-06</v>
+        <v>3.642583067775161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.920572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>194778.5178231786</v>
+        <v>259065.3206380236</v>
       </c>
     </row>
     <row r="4">
@@ -15898,28 +15898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.4404288644764</v>
+        <v>188.3758192442705</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.470987618707</v>
+        <v>257.7441064445083</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.9565635372693</v>
+        <v>233.145370671645</v>
       </c>
       <c r="AD4" t="n">
-        <v>149440.4288644764</v>
+        <v>188375.8192442705</v>
       </c>
       <c r="AE4" t="n">
-        <v>204470.987618707</v>
+        <v>257744.1064445083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225022440616709e-06</v>
+        <v>3.920435735719249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.42578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>184956.5635372693</v>
+        <v>233145.370671645</v>
       </c>
     </row>
     <row r="5">
@@ -16004,28 +16004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.9679634504581</v>
+        <v>182.9033538302522</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.983319011116</v>
+        <v>250.2564378369173</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.1835075125755</v>
+        <v>226.3723146469512</v>
       </c>
       <c r="AD5" t="n">
-        <v>143967.9634504581</v>
+        <v>182903.3538302522</v>
       </c>
       <c r="AE5" t="n">
-        <v>196983.319011116</v>
+        <v>250256.4378369173</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.350975396117491e-06</v>
+        <v>4.142361797565105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>178183.5075125755</v>
+        <v>226372.3146469512</v>
       </c>
     </row>
     <row r="6">
@@ -16110,28 +16110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.8828164835017</v>
+        <v>165.9034582093164</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.6066671874504</v>
+        <v>226.9964306659009</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.0378905296162</v>
+        <v>205.3322099147041</v>
       </c>
       <c r="AD6" t="n">
-        <v>126882.8164835017</v>
+        <v>165903.4582093164</v>
       </c>
       <c r="AE6" t="n">
-        <v>173606.6671874504</v>
+        <v>226996.4306659009</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.450107884463328e-06</v>
+        <v>4.317030844846296e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.83984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>157037.8905296162</v>
+        <v>205332.2099147041</v>
       </c>
     </row>
     <row r="7">
@@ -16216,28 +16216,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.7539272489182</v>
+        <v>162.7745689747329</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.3255828998446</v>
+        <v>222.7153463782951</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.1653869178786</v>
+        <v>201.4597063029665</v>
       </c>
       <c r="AD7" t="n">
-        <v>123753.9272489182</v>
+        <v>162774.5689747329</v>
       </c>
       <c r="AE7" t="n">
-        <v>169325.5828998446</v>
+        <v>222715.3463782951</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534611027088286e-06</v>
+        <v>4.465923338728579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.64453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>153165.3869178786</v>
+        <v>201459.7063029665</v>
       </c>
     </row>
     <row r="8">
@@ -16322,28 +16322,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.4748993974953</v>
+        <v>159.3249489227177</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.8390723330307</v>
+        <v>217.9954240366343</v>
       </c>
       <c r="AC8" t="n">
-        <v>149.1070626227028</v>
+        <v>197.1902467251397</v>
       </c>
       <c r="AD8" t="n">
-        <v>120474.8993974953</v>
+        <v>159324.9489227177</v>
       </c>
       <c r="AE8" t="n">
-        <v>164839.0723330307</v>
+        <v>217995.4240366344</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.61603893187402e-06</v>
+        <v>4.609397337902383e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>149107.0626227029</v>
+        <v>197190.2467251397</v>
       </c>
     </row>
     <row r="9">
@@ -16428,28 +16428,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.2755008048881</v>
+        <v>159.1255503301106</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.5662463817806</v>
+        <v>217.7225980853844</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.8602747973264</v>
+        <v>196.9434588997633</v>
       </c>
       <c r="AD9" t="n">
-        <v>120275.5008048881</v>
+        <v>159125.5503301106</v>
       </c>
       <c r="AE9" t="n">
-        <v>164566.2463817807</v>
+        <v>217722.5980853844</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.629613910335736e-06</v>
+        <v>4.633316121686955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.436197916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>148860.2747973264</v>
+        <v>196943.4588997633</v>
       </c>
     </row>
     <row r="10">
@@ -16534,28 +16534,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.8929715952947</v>
+        <v>156.7430211205171</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.3063648074461</v>
+        <v>214.4627165110498</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.9115117451728</v>
+        <v>193.9946958476096</v>
       </c>
       <c r="AD10" t="n">
-        <v>117892.9715952947</v>
+        <v>156743.0211205171</v>
       </c>
       <c r="AE10" t="n">
-        <v>161306.3648074461</v>
+        <v>214462.7165110498</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.68879027275623e-06</v>
+        <v>4.737583441291548e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>145911.5117451728</v>
+        <v>193994.6958476096</v>
       </c>
     </row>
     <row r="11">
@@ -16640,28 +16640,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.7069701045912</v>
+        <v>141.7208207636854</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.3153811282878</v>
+        <v>193.9086792501365</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.2059833504804</v>
+        <v>175.4023070550989</v>
       </c>
       <c r="AD11" t="n">
-        <v>115706.9701045913</v>
+        <v>141720.8207636854</v>
       </c>
       <c r="AE11" t="n">
-        <v>158315.3811282878</v>
+        <v>193908.6792501365</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.741750261544577e-06</v>
+        <v>4.830897660878287e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>143205.9833504804</v>
+        <v>175402.3070550989</v>
       </c>
     </row>
     <row r="12">
@@ -16746,28 +16746,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.5167679367197</v>
+        <v>140.5306185958139</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.686894014193</v>
+        <v>192.2801921360417</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.7329167609583</v>
+        <v>173.9292404655768</v>
       </c>
       <c r="AD12" t="n">
-        <v>114516.7679367197</v>
+        <v>140530.6185958139</v>
       </c>
       <c r="AE12" t="n">
-        <v>156686.894014193</v>
+        <v>192280.1921360417</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.766681654026856e-06</v>
+        <v>4.874826171550601e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>141732.9167609583</v>
+        <v>173929.2404655768</v>
       </c>
     </row>
     <row r="13">
@@ -16852,28 +16852,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.5708103253587</v>
+        <v>140.5846609844529</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.7608371945107</v>
+        <v>192.3541353163595</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.7998029079264</v>
+        <v>173.9961266125449</v>
       </c>
       <c r="AD13" t="n">
-        <v>114570.8103253587</v>
+        <v>140584.6609844529</v>
       </c>
       <c r="AE13" t="n">
-        <v>156760.8371945107</v>
+        <v>192354.1353163595</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.766505926150329e-06</v>
+        <v>4.874516543281544e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>141799.8029079264</v>
+        <v>173996.1266125449</v>
       </c>
     </row>
   </sheetData>
@@ -17149,28 +17149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.29120770627932</v>
+        <v>116.3917388516782</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5944608155471</v>
+        <v>159.2523119379167</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8486035026585</v>
+        <v>144.0534947986293</v>
       </c>
       <c r="AD2" t="n">
-        <v>82291.20770627933</v>
+        <v>116391.7388516782</v>
       </c>
       <c r="AE2" t="n">
-        <v>112594.4608155471</v>
+        <v>159252.3119379167</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.277422769304768e-06</v>
+        <v>6.423703334070391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>101848.6035026585</v>
+        <v>144053.4947986293</v>
       </c>
     </row>
     <row r="3">
@@ -17255,28 +17255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.80538740444038</v>
+        <v>115.9059185498393</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.9297400456923</v>
+        <v>158.5875911680619</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.247322750137</v>
+        <v>143.4522140461078</v>
       </c>
       <c r="AD3" t="n">
-        <v>81805.38740444038</v>
+        <v>115905.9185498393</v>
       </c>
       <c r="AE3" t="n">
-        <v>111929.7400456923</v>
+        <v>158587.5911680619</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306704575613288e-06</v>
+        <v>6.481095269762453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101247.322750137</v>
+        <v>143452.2140461078</v>
       </c>
     </row>
   </sheetData>
@@ -17552,28 +17552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7632305250951</v>
+        <v>207.0304535846265</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.9092973125978</v>
+        <v>283.2682001333545</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8716380603843</v>
+        <v>256.2334806821262</v>
       </c>
       <c r="AD2" t="n">
-        <v>168763.2305250951</v>
+        <v>207030.4535846265</v>
       </c>
       <c r="AE2" t="n">
-        <v>230909.2973125978</v>
+        <v>283268.2001333545</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046947845184475e-06</v>
+        <v>3.658477821893342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>208871.6380603843</v>
+        <v>256233.4806821262</v>
       </c>
     </row>
     <row r="3">
@@ -17658,28 +17658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.1816866469854</v>
+        <v>183.3635688519451</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.6439886342922</v>
+        <v>250.8861243328512</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.6856851576807</v>
+        <v>226.9419047474838</v>
       </c>
       <c r="AD3" t="n">
-        <v>145181.6866469854</v>
+        <v>183363.5688519451</v>
       </c>
       <c r="AE3" t="n">
-        <v>198643.9886342922</v>
+        <v>250886.1243328511</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.264715870993393e-06</v>
+        <v>4.047691203472013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>179685.6851576807</v>
+        <v>226941.9047474838</v>
       </c>
     </row>
     <row r="4">
@@ -17764,28 +17764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.4937327061424</v>
+        <v>176.3458957316396</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.7060614812171</v>
+        <v>241.2842343717663</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.3186759644684</v>
+        <v>218.2564056879446</v>
       </c>
       <c r="AD4" t="n">
-        <v>125493.7327061424</v>
+        <v>176345.8957316396</v>
       </c>
       <c r="AE4" t="n">
-        <v>171706.0614812172</v>
+        <v>241284.2343717663</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436012696801785e-06</v>
+        <v>4.35384733717861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>155318.6759644684</v>
+        <v>218256.4056879446</v>
       </c>
     </row>
     <row r="5">
@@ -17870,28 +17870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.1708865609888</v>
+        <v>159.4380201119692</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.7913526749087</v>
+        <v>218.150133026117</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.9684586652862</v>
+        <v>197.3301905058016</v>
       </c>
       <c r="AD5" t="n">
-        <v>121170.8865609888</v>
+        <v>159438.0201119692</v>
       </c>
       <c r="AE5" t="n">
-        <v>165791.3526749087</v>
+        <v>218150.133026117</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556162116157984e-06</v>
+        <v>4.568588512466544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>149968.4586652862</v>
+        <v>197330.1905058016</v>
       </c>
     </row>
     <row r="6">
@@ -17976,28 +17976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.2036427751607</v>
+        <v>156.470776326141</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.7314388215837</v>
+        <v>214.090219172792</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.2960172919964</v>
+        <v>193.6577491325117</v>
       </c>
       <c r="AD6" t="n">
-        <v>118203.6427751607</v>
+        <v>156470.776326141</v>
       </c>
       <c r="AE6" t="n">
-        <v>161731.4388215837</v>
+        <v>214090.219172792</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63950598712667e-06</v>
+        <v>4.717547707615065e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>146296.0172919964</v>
+        <v>193657.7491325117</v>
       </c>
     </row>
     <row r="7">
@@ -18082,28 +18082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.5465708445962</v>
+        <v>152.6431121949843</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.727671667561</v>
+        <v>208.8530402439224</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.7698026523207</v>
+        <v>188.9203992101851</v>
       </c>
       <c r="AD7" t="n">
-        <v>114546.5708445962</v>
+        <v>152643.1121949843</v>
       </c>
       <c r="AE7" t="n">
-        <v>156727.671667561</v>
+        <v>208853.0402439224</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.744642322611732e-06</v>
+        <v>4.905456233253426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>141769.8026523207</v>
+        <v>188920.399210185</v>
       </c>
     </row>
     <row r="8">
@@ -18188,28 +18188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.750175732459</v>
+        <v>152.8467170828471</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.0062528575484</v>
+        <v>209.1316214339099</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.021796444527</v>
+        <v>189.1723930023913</v>
       </c>
       <c r="AD8" t="n">
-        <v>114750.175732459</v>
+        <v>152846.7170828471</v>
       </c>
       <c r="AE8" t="n">
-        <v>157006.2528575484</v>
+        <v>209131.6214339099</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.744261961321405e-06</v>
+        <v>4.904776419476909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>142021.796444527</v>
+        <v>189172.3930023913</v>
       </c>
     </row>
     <row r="9">
@@ -18294,28 +18294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.1268251798996</v>
+        <v>136.6383370557709</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.0486247805945</v>
+        <v>186.9546008176151</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.5373174331613</v>
+        <v>169.1119161080647</v>
       </c>
       <c r="AD9" t="n">
-        <v>111126.8251798996</v>
+        <v>136638.3370557709</v>
       </c>
       <c r="AE9" t="n">
-        <v>152048.6247805945</v>
+        <v>186954.6008176151</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.843469135516077e-06</v>
+        <v>5.082087848010746e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>137537.3174331613</v>
+        <v>169111.9161080648</v>
       </c>
     </row>
     <row r="10">
@@ -18400,28 +18400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.9191530557884</v>
+        <v>136.4306649316597</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.7644786185383</v>
+        <v>186.6704546555589</v>
       </c>
       <c r="AC10" t="n">
-        <v>137.2802897820099</v>
+        <v>168.8548884569134</v>
       </c>
       <c r="AD10" t="n">
-        <v>110919.1530557884</v>
+        <v>136430.6649316597</v>
       </c>
       <c r="AE10" t="n">
-        <v>151764.4786185383</v>
+        <v>186670.4546555589</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.837853212935368e-06</v>
+        <v>5.072050597545705e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>137280.2897820099</v>
+        <v>168854.8884569134</v>
       </c>
     </row>
     <row r="11">
@@ -18506,28 +18506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.3916017435288</v>
+        <v>135.9031136194</v>
       </c>
       <c r="AB11" t="n">
-        <v>151.0426596391836</v>
+        <v>185.9486356762042</v>
       </c>
       <c r="AC11" t="n">
-        <v>136.6273601929654</v>
+        <v>168.2019588678689</v>
       </c>
       <c r="AD11" t="n">
-        <v>110391.6017435288</v>
+        <v>135903.1136194</v>
       </c>
       <c r="AE11" t="n">
-        <v>151042.6596391836</v>
+        <v>185948.6356762042</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.865015483903418e-06</v>
+        <v>5.120597298998135e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>136627.3601929654</v>
+        <v>168201.9588678689</v>
       </c>
     </row>
   </sheetData>
@@ -18803,28 +18803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.4019706511199</v>
+        <v>123.6938146916798</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.3744056671367</v>
+        <v>169.243334247052</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.2635851964913</v>
+        <v>153.0909879610719</v>
       </c>
       <c r="AD2" t="n">
-        <v>100401.9706511199</v>
+        <v>123693.8146916798</v>
       </c>
       <c r="AE2" t="n">
-        <v>137374.4056671367</v>
+        <v>169243.3342470521</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037689915456617e-06</v>
+        <v>5.840575760293594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124263.5851964913</v>
+        <v>153090.9879610719</v>
       </c>
     </row>
     <row r="3">
@@ -18909,28 +18909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.62969183472227</v>
+        <v>119.4819827781639</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.7940779667197</v>
+        <v>163.4805200100725</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.7428536836151</v>
+        <v>147.8781686267073</v>
       </c>
       <c r="AD3" t="n">
-        <v>84629.69183472227</v>
+        <v>119481.9827781639</v>
       </c>
       <c r="AE3" t="n">
-        <v>115794.0779667197</v>
+        <v>163480.5200100725</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216047767079532e-06</v>
+        <v>6.183504951171937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104742.8536836151</v>
+        <v>147878.1686267073</v>
       </c>
     </row>
     <row r="4">
@@ -19015,28 +19015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.42895522424111</v>
+        <v>119.2812461676827</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.5194212803853</v>
+        <v>163.2058633237381</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.4944098459412</v>
+        <v>147.6297247890334</v>
       </c>
       <c r="AD4" t="n">
-        <v>84428.9552242411</v>
+        <v>119281.2461676827</v>
       </c>
       <c r="AE4" t="n">
-        <v>115519.4212803853</v>
+        <v>163205.8633237381</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227870038233983e-06</v>
+        <v>6.206235668347828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>104494.4098459412</v>
+        <v>147629.7247890334</v>
       </c>
     </row>
   </sheetData>
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.8474438396207</v>
+        <v>151.1260101577288</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.139339372933</v>
+        <v>206.7772743067322</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.1421813696714</v>
+        <v>187.0427414606838</v>
       </c>
       <c r="AD2" t="n">
-        <v>114847.4438396207</v>
+        <v>151126.0101577288</v>
       </c>
       <c r="AE2" t="n">
-        <v>157139.339372933</v>
+        <v>206777.2743067322</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.603549100718181e-06</v>
+        <v>4.850214504748359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>142142.1813696714</v>
+        <v>187042.7414606838</v>
       </c>
     </row>
     <row r="3">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.5050217450807</v>
+        <v>144.6129958625967</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.4613576552729</v>
+        <v>197.8658808142252</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2924140475182</v>
+        <v>178.9818388558795</v>
       </c>
       <c r="AD3" t="n">
-        <v>108505.0217450807</v>
+        <v>144612.9958625967</v>
       </c>
       <c r="AE3" t="n">
-        <v>148461.3576552729</v>
+        <v>197865.8808142252</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.824689724426127e-06</v>
+        <v>5.262182713990701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>134292.4140475182</v>
+        <v>178981.8388558796</v>
       </c>
     </row>
     <row r="4">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.054700966264</v>
+        <v>128.2405013535538</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.3722324314027</v>
+        <v>175.4643115234839</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.7844263888713</v>
+        <v>158.7182438974395</v>
       </c>
       <c r="AD4" t="n">
-        <v>104054.700966264</v>
+        <v>128240.5013535538</v>
       </c>
       <c r="AE4" t="n">
-        <v>142372.2324314027</v>
+        <v>175464.3115234839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993715603851373e-06</v>
+        <v>5.577065107351376e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>128784.4263888713</v>
+        <v>158718.2438974395</v>
       </c>
     </row>
     <row r="5">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.46270669572969</v>
+        <v>125.6559321592662</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.4068221171143</v>
+        <v>171.9279899287159</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.7244868133428</v>
+        <v>155.5194238724165</v>
       </c>
       <c r="AD5" t="n">
-        <v>89462.70669572969</v>
+        <v>125655.9321592662</v>
       </c>
       <c r="AE5" t="n">
-        <v>122406.8221171143</v>
+        <v>171927.9899287159</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.080722522297163e-06</v>
+        <v>5.739152397252236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>110724.4868133428</v>
+        <v>155519.4238724165</v>
       </c>
     </row>
     <row r="6">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.39498242951336</v>
+        <v>125.5882078930499</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.3141587882934</v>
+        <v>171.835326599895</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.6406671425708</v>
+        <v>155.4356042016444</v>
       </c>
       <c r="AD6" t="n">
-        <v>89394.98242951336</v>
+        <v>125588.2078930499</v>
       </c>
       <c r="AE6" t="n">
-        <v>122314.1587882934</v>
+        <v>171835.326599895</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.085098749130835e-06</v>
+        <v>5.747304975922209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>110640.6671425708</v>
+        <v>155435.6042016444</v>
       </c>
     </row>
   </sheetData>
@@ -20033,28 +20033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.32050247652337</v>
+        <v>112.5966120892784</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.5298108619319</v>
+        <v>154.0596520724277</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.17187803584301</v>
+        <v>139.3564151027571</v>
       </c>
       <c r="AD2" t="n">
-        <v>79320.50247652337</v>
+        <v>112596.6120892784</v>
       </c>
       <c r="AE2" t="n">
-        <v>108529.8108619319</v>
+        <v>154059.6520724277</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366545905995224e-06</v>
+        <v>6.748232363933521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>98171.87803584301</v>
+        <v>139356.4151027571</v>
       </c>
     </row>
   </sheetData>
@@ -20330,28 +20330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.41208385307755</v>
+        <v>107.7026713753724</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.2328253598183</v>
+        <v>147.3635464822384</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.9488504483207</v>
+        <v>133.2993764320501</v>
       </c>
       <c r="AD2" t="n">
-        <v>86412.08385307755</v>
+        <v>107702.6713753724</v>
       </c>
       <c r="AE2" t="n">
-        <v>118232.8253598184</v>
+        <v>147363.5464822384</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425027853991757e-06</v>
+        <v>7.165372464658194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>106948.8504483207</v>
+        <v>133299.3764320501</v>
       </c>
     </row>
   </sheetData>
@@ -34200,28 +34200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3529270023444</v>
+        <v>201.9402506359037</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.0877519443999</v>
+        <v>276.3035598950102</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.3235875483707</v>
+        <v>249.9335359331934</v>
       </c>
       <c r="AD2" t="n">
-        <v>151352.9270023445</v>
+        <v>201940.2506359037</v>
       </c>
       <c r="AE2" t="n">
-        <v>207087.7519443998</v>
+        <v>276303.5598950102</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.116052745548635e-06</v>
+        <v>3.801500102077586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>187323.5875483706</v>
+        <v>249933.5359331933</v>
       </c>
     </row>
     <row r="3">
@@ -34306,28 +34306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.240048898123</v>
+        <v>179.1592959182005</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.2508659735165</v>
+        <v>245.1336526254733</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.8072745543526</v>
+        <v>221.7384408662116</v>
       </c>
       <c r="AD3" t="n">
-        <v>141240.0488981229</v>
+        <v>179159.2959182005</v>
       </c>
       <c r="AE3" t="n">
-        <v>193250.8659735165</v>
+        <v>245133.6526254733</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341028181922855e-06</v>
+        <v>4.205669679674673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.263020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>174807.2745543526</v>
+        <v>221738.4408662116</v>
       </c>
     </row>
     <row r="4">
@@ -34412,28 +34412,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.4894344476963</v>
+        <v>160.4939328137944</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.5954480637282</v>
+        <v>219.5948793683343</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.6003737222612</v>
+        <v>198.6370522848324</v>
       </c>
       <c r="AD4" t="n">
-        <v>122489.4344476963</v>
+        <v>160493.9328137944</v>
       </c>
       <c r="AE4" t="n">
-        <v>167595.4480637282</v>
+        <v>219594.8793683343</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499614470506164e-06</v>
+        <v>4.490570797336203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.865885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>151600.3737222612</v>
+        <v>198637.0522848323</v>
       </c>
     </row>
     <row r="5">
@@ -34518,28 +34518,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.4198921053264</v>
+        <v>156.4243904714245</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.0273206953634</v>
+        <v>214.0267519999694</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.5636606150155</v>
+        <v>193.6003391775867</v>
       </c>
       <c r="AD5" t="n">
-        <v>118419.8921053264</v>
+        <v>156424.3904714246</v>
       </c>
       <c r="AE5" t="n">
-        <v>162027.3206953635</v>
+        <v>214026.7519999694</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61802496544667e-06</v>
+        <v>4.70329588632574e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>146563.6606150155</v>
+        <v>193600.3391775867</v>
       </c>
     </row>
     <row r="6">
@@ -34624,28 +34624,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.3880701119535</v>
+        <v>153.2219762774594</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.8790480894862</v>
+        <v>209.6450676192454</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.8112933245048</v>
+        <v>189.6368366044249</v>
       </c>
       <c r="AD6" t="n">
-        <v>115388.0701119535</v>
+        <v>153221.9762774594</v>
       </c>
       <c r="AE6" t="n">
-        <v>157879.0480894862</v>
+        <v>209645.0676192454</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.70646125560098e-06</v>
+        <v>4.862172155717509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>142811.2933245047</v>
+        <v>189636.8366044249</v>
       </c>
     </row>
     <row r="7">
@@ -34730,28 +34730,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.6250075639112</v>
+        <v>136.9614293165277</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.7302598966545</v>
+        <v>187.3966699026069</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.1538982504256</v>
+        <v>169.5117947400329</v>
       </c>
       <c r="AD7" t="n">
-        <v>111625.0075639112</v>
+        <v>136961.4293165277</v>
       </c>
       <c r="AE7" t="n">
-        <v>152730.2598966545</v>
+        <v>187396.6699026069</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818048171240045e-06</v>
+        <v>5.062638647909057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>138153.8982504256</v>
+        <v>169511.7947400329</v>
       </c>
     </row>
     <row r="8">
@@ -34836,28 +34836,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.1489958245671</v>
+        <v>136.4854175771836</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.0789596347284</v>
+        <v>186.7453696406808</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.5647571713918</v>
+        <v>168.9226536609991</v>
       </c>
       <c r="AD8" t="n">
-        <v>111148.9958245671</v>
+        <v>136485.4175771836</v>
       </c>
       <c r="AE8" t="n">
-        <v>152078.9596347284</v>
+        <v>186745.3696406808</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.830839567422284e-06</v>
+        <v>5.085618459728391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>137564.7571713918</v>
+        <v>168922.6536609991</v>
       </c>
     </row>
     <row r="9">
@@ -34942,28 +34942,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.2643137253398</v>
+        <v>134.6007354779563</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.5002544402608</v>
+        <v>184.1666644462132</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.232159981448</v>
+        <v>166.5900564710553</v>
       </c>
       <c r="AD9" t="n">
-        <v>109264.3137253398</v>
+        <v>134600.7354779563</v>
       </c>
       <c r="AE9" t="n">
-        <v>149500.2544402608</v>
+        <v>184166.6644462132</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.886148843872242e-06</v>
+        <v>5.184981871397904e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>135232.159981448</v>
+        <v>166590.0564710553</v>
       </c>
     </row>
     <row r="10">
@@ -35048,28 +35048,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.3341055311167</v>
+        <v>134.6705272837332</v>
       </c>
       <c r="AB10" t="n">
-        <v>149.5957466679219</v>
+        <v>184.2621566738743</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.3185385649253</v>
+        <v>166.6764350545326</v>
       </c>
       <c r="AD10" t="n">
-        <v>109334.1055311167</v>
+        <v>134670.5272837332</v>
       </c>
       <c r="AE10" t="n">
-        <v>149595.7466679219</v>
+        <v>184262.1566738743</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.884414798967255e-06</v>
+        <v>5.181866650429438e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>135318.5385649253</v>
+        <v>166676.4350545327</v>
       </c>
     </row>
   </sheetData>
@@ -35345,28 +35345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.48381903334598</v>
+        <v>104.0146789476847</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2262442475373</v>
+        <v>142.3174725399357</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3246518141225</v>
+        <v>128.7348927045899</v>
       </c>
       <c r="AD2" t="n">
-        <v>83483.81903334598</v>
+        <v>104014.6789476847</v>
       </c>
       <c r="AE2" t="n">
-        <v>114226.2442475373</v>
+        <v>142317.4725399357</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.418647843742061e-06</v>
+        <v>7.431647340227269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103324.6518141225</v>
+        <v>128734.8927045899</v>
       </c>
     </row>
   </sheetData>
@@ -35642,28 +35642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.19677389337421</v>
+        <v>117.648654570475</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0429611248045</v>
+        <v>160.9720794755815</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.3953522034568</v>
+        <v>145.6091301362089</v>
       </c>
       <c r="AD2" t="n">
-        <v>89196.77389337421</v>
+        <v>117648.654570475</v>
       </c>
       <c r="AE2" t="n">
-        <v>122042.9611248045</v>
+        <v>160972.0794755815</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.111891676799362e-06</v>
+        <v>7.401718260830291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110395.3522034568</v>
+        <v>145609.1301362089</v>
       </c>
     </row>
   </sheetData>
@@ -35939,28 +35939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.7863431117639</v>
+        <v>119.8329452226218</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.4273445575629</v>
+        <v>163.9607223099498</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7886646559699</v>
+        <v>148.3125410930526</v>
       </c>
       <c r="AD2" t="n">
-        <v>96786.3431117639</v>
+        <v>119832.9452226218</v>
       </c>
       <c r="AE2" t="n">
-        <v>132427.344557563</v>
+        <v>163960.7223099498</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.166220618156731e-06</v>
+        <v>6.144298692117548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119788.6646559699</v>
+        <v>148312.5410930526</v>
       </c>
     </row>
     <row r="3">
@@ -36045,28 +36045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.23340901336422</v>
+        <v>117.7178370622529</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.883622210888</v>
+        <v>161.0667380129481</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.0147291437779</v>
+        <v>145.6947545956233</v>
       </c>
       <c r="AD3" t="n">
-        <v>83233.40901336422</v>
+        <v>117717.8370622529</v>
       </c>
       <c r="AE3" t="n">
-        <v>113883.622210888</v>
+        <v>161066.7380129481</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.256991452157289e-06</v>
+        <v>6.320446593319941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>103014.7291437779</v>
+        <v>145694.7545956233</v>
       </c>
     </row>
   </sheetData>
@@ -36342,28 +36342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.827076227761</v>
+        <v>146.787568340134</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6384950402883</v>
+        <v>200.8412268133571</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.166329899649</v>
+        <v>181.6732220087796</v>
       </c>
       <c r="AD2" t="n">
-        <v>110827.076227761</v>
+        <v>146787.568340134</v>
       </c>
       <c r="AE2" t="n">
-        <v>151638.4950402883</v>
+        <v>200841.2268133571</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.714643682303063e-06</v>
+        <v>5.093736310640566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137166.329899649</v>
+        <v>181673.2220087796</v>
       </c>
     </row>
     <row r="3">
@@ -36448,28 +36448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.2581893603313</v>
+        <v>141.0480892721121</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.0188983463256</v>
+        <v>192.9882183445476</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.2739368199845</v>
+        <v>174.5696936464641</v>
       </c>
       <c r="AD3" t="n">
-        <v>105258.1893603313</v>
+        <v>141048.0892721121</v>
       </c>
       <c r="AE3" t="n">
-        <v>144018.8983463256</v>
+        <v>192988.2183445476</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922653992862924e-06</v>
+        <v>5.48404524097778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130273.9368199845</v>
+        <v>174569.6936464641</v>
       </c>
     </row>
     <row r="4">
@@ -36554,28 +36554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.3405143802381</v>
+        <v>125.3142652970378</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.6585626029427</v>
+        <v>171.460506254537</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.42518399667</v>
+        <v>155.0965561839837</v>
       </c>
       <c r="AD4" t="n">
-        <v>101340.5143802381</v>
+        <v>125314.2652970378</v>
       </c>
       <c r="AE4" t="n">
-        <v>138658.5626029427</v>
+        <v>171460.506254537</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075364117072986e-06</v>
+        <v>5.770589331372472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.01953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>125425.18399667</v>
+        <v>155096.5561839837</v>
       </c>
     </row>
     <row r="5">
@@ -36660,28 +36660,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.98073352025044</v>
+        <v>123.8558847780517</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.3791210383824</v>
+        <v>169.4650856892536</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.8903066796681</v>
+        <v>153.2915757568599</v>
       </c>
       <c r="AD5" t="n">
-        <v>87980.73352025043</v>
+        <v>123855.8847780517</v>
       </c>
       <c r="AE5" t="n">
-        <v>120379.1210383824</v>
+        <v>169465.0856892536</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.129217151399045e-06</v>
+        <v>5.871638746503116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>108890.3066796681</v>
+        <v>153291.5757568599</v>
       </c>
     </row>
     <row r="6">
@@ -36766,28 +36766,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.03600600428356</v>
+        <v>123.9111572620849</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.4547472894864</v>
+        <v>169.5407119403576</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.9587152675089</v>
+        <v>153.3599843447007</v>
       </c>
       <c r="AD6" t="n">
-        <v>88036.00600428357</v>
+        <v>123911.1572620849</v>
       </c>
       <c r="AE6" t="n">
-        <v>120454.7472894864</v>
+        <v>169540.7119403576</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128529161092677e-06</v>
+        <v>5.870347806838451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.934895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>108958.7152675089</v>
+        <v>153359.9843447007</v>
       </c>
     </row>
   </sheetData>
@@ -37063,28 +37063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.4053628815159</v>
+        <v>175.4968718154841</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.3723235080758</v>
+        <v>240.1225623933911</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.2988947382437</v>
+        <v>217.2056020527684</v>
       </c>
       <c r="AD2" t="n">
-        <v>138405.3628815159</v>
+        <v>175496.8718154841</v>
       </c>
       <c r="AE2" t="n">
-        <v>189372.3235080758</v>
+        <v>240122.5623933911</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351029338716851e-06</v>
+        <v>4.295411140737449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>171298.8947382437</v>
+        <v>217205.6020527684</v>
       </c>
     </row>
     <row r="3">
@@ -37169,28 +37169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.2564922262326</v>
+        <v>155.4332525062214</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.8037497720935</v>
+        <v>212.6706333100581</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.3614269868786</v>
+        <v>192.3736465521155</v>
       </c>
       <c r="AD3" t="n">
-        <v>118256.4922262326</v>
+        <v>155433.2525062214</v>
       </c>
       <c r="AE3" t="n">
-        <v>161803.7497720935</v>
+        <v>212670.6333100581</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565963249626419e-06</v>
+        <v>4.688102758931847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146361.4269868786</v>
+        <v>192373.6465521155</v>
       </c>
     </row>
     <row r="4">
@@ -37275,28 +37275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.296071152054</v>
+        <v>150.3022392314505</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.0166828200727</v>
+        <v>205.6501545831904</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.2221081790482</v>
+        <v>186.0231924616341</v>
       </c>
       <c r="AD4" t="n">
-        <v>113296.0711520539</v>
+        <v>150302.2392314505</v>
       </c>
       <c r="AE4" t="n">
-        <v>155016.6828200727</v>
+        <v>205650.1545831905</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.723162987419392e-06</v>
+        <v>4.97531206505028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>140222.1081790482</v>
+        <v>186023.1924616341</v>
       </c>
     </row>
     <row r="5">
@@ -37381,28 +37381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.5298206205353</v>
+        <v>134.3144169824122</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.8635326876047</v>
+        <v>183.7749108491295</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.5607674627297</v>
+        <v>166.2356912874475</v>
       </c>
       <c r="AD5" t="n">
-        <v>109529.8206205353</v>
+        <v>134314.4169824122</v>
       </c>
       <c r="AE5" t="n">
-        <v>149863.5326876047</v>
+        <v>183774.9108491295</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.851875014940976e-06</v>
+        <v>5.210473348603151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>135560.7674627297</v>
+        <v>166235.6912874475</v>
       </c>
     </row>
     <row r="6">
@@ -37487,28 +37487,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.9252078081721</v>
+        <v>130.709804170049</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.9315424134379</v>
+        <v>178.8429205749627</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.099479418236</v>
+        <v>161.7744032429538</v>
       </c>
       <c r="AD6" t="n">
-        <v>105925.2078081721</v>
+        <v>130709.804170049</v>
       </c>
       <c r="AE6" t="n">
-        <v>144931.5424134379</v>
+        <v>178842.9205749627</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.965388998484037e-06</v>
+        <v>5.417867285169877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.045572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>131099.479418236</v>
+        <v>161774.4032429538</v>
       </c>
     </row>
     <row r="7">
@@ -37593,28 +37593,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.457316695172</v>
+        <v>130.2419130570489</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.2913531507325</v>
+        <v>178.2027313122572</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.5203889202517</v>
+        <v>161.1953127449695</v>
       </c>
       <c r="AD7" t="n">
-        <v>105457.316695172</v>
+        <v>130241.9130570489</v>
       </c>
       <c r="AE7" t="n">
-        <v>144291.3531507325</v>
+        <v>178202.7313122572</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.976793279593488e-06</v>
+        <v>5.438703297431796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>130520.3889202517</v>
+        <v>161195.3127449695</v>
       </c>
     </row>
     <row r="8">
@@ -37699,28 +37699,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.5125920332422</v>
+        <v>130.2971883951191</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.3669833068558</v>
+        <v>178.2783614683806</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.5888010404223</v>
+        <v>161.2637248651401</v>
       </c>
       <c r="AD8" t="n">
-        <v>105512.5920332422</v>
+        <v>130297.1883951191</v>
       </c>
       <c r="AE8" t="n">
-        <v>144366.9833068558</v>
+        <v>178278.3614683806</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.97541372945928e-06</v>
+        <v>5.436182812077531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.032552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>130588.8010404222</v>
+        <v>161263.7248651401</v>
       </c>
     </row>
   </sheetData>
